--- a/assets/findings/2024-03-17-findings.xlsx
+++ b/assets/findings/2024-03-17-findings.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="32" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="64" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="84" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="93" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COG-84" sheetId="5" state="visible" r:id="rId5"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,24 +438,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="33.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="56.4" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="44.4" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,90 +477,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -567,65 +573,324 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000025380</t>
+          <t>2023-06-GSAFAC-0000027592</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>University of Indianapolis</t>
+          <t>HUNTSVILLE SCHOOL DISTRICT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AWARD-0002</t>
+          <t>GM38JLY696M9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>AWARD-0007</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2023-001</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32.009</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EMERGENCY CONNECTIVITY FUND PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>449594</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="39.6" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="63.59999999999999" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>report_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>auditee_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>award_reference</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reference_number</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>aln</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cog_over</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>federal_program_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>amount_expended</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_direct</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>is_major</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>is_passthrough_award</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>passthrough_amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>is_modified_opinion</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>is_other_matters</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>is_material_weakness</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_significant_deficiency</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>is_other_findings</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>is_questioned_costs</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>is_repeat_finding</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>prior_finding_ref_numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000028777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Community Support Services Inc.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S7JKG4C2V2B5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AWARD-0008</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.195</t>
+          <t>2023-002</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>COG-84</t>
+          <t>64.033</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>234863</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+          <t>OVER-14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>VA SUPPORTIVE SERVICES FOR VETERAN FAMILIES PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>551425</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>66767</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -637,19 +902,19 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -657,7 +922,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -665,65 +933,66 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000030144</t>
+          <t>2023-06-GSAFAC-0000028777</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TRINITY BEHAVIORAL CARE</t>
+          <t>Community Support Services Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AWARD-0001</t>
+          <t>S7JKG4C2V2B5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-001</t>
+          <t>AWARD-0008</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.157</t>
+          <t>2023-003</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>OVER-93</t>
+          <t>64.033</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SUPPORTIVE HOUSING FOR THE ELDERLY</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2030900</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+          <t>OVER-14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>VA SUPPORTIVE SERVICES FOR VETERAN FAMILIES PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>551425</v>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>66767</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -735,14 +1004,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -755,73 +1024,537 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2022-001</t>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000030144</t>
+          <t>2023-06-GSAFAC-0000028777</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TRINITY BEHAVIORAL CARE</t>
+          <t>Community Support Services Inc.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AWARD-0001</t>
+          <t>S7JKG4C2V2B5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>AWARD-0008</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-004</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>64.033</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>OVER-14</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>VA SUPPORTIVE SERVICES FOR VETERAN FAMILIES PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>551425</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>66767</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="44.4" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="49.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>report_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>auditee_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>award_reference</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reference_number</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>aln</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cog_over</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>federal_program_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>amount_expended</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_direct</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>is_major</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>is_passthrough_award</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>passthrough_amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>is_modified_opinion</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>is_other_matters</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>is_material_weakness</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_significant_deficiency</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>is_other_findings</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>is_questioned_costs</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>is_repeat_finding</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>prior_finding_ref_numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000027592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HUNTSVILLE SCHOOL DISTRICT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GM38JLY696M9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AWARD-0009</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2023-002</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84.425</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>COVID-19 - EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>3587973</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000025380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>University of Indianapolis</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WRJWCFVRM7M5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>AWARD-0002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-001</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>84.033</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FEDERAL WORK-STUDY PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>309816</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000027452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Southeast Missouri State University</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AWARD-0023</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.157</t>
+          <t>2023-002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>OVER-93</t>
+          <t>84.031</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SUPPORTIVE HOUSING FOR THE ELDERLY</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2030900</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HIGHER EDUCATION_INSTITUTIONAL AID</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>515504</v>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -848,78 +1581,79 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>2022-002</t>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000030144</t>
+          <t>2023-06-GSAFAC-0000027452</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TRINITY BEHAVIORAL CARE</t>
+          <t>Southeast Missouri State University</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AWARD-0002</t>
+          <t>SLW1H99F22C3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-001</t>
+          <t>AWARD-0029</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14.195</t>
+          <t>2023-003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>OVER-93</t>
+          <t>84.425</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>234863</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>18353</v>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -946,78 +1680,79 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2022-001</t>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000030144</t>
+          <t>2023-06-GSAFAC-0000027452</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TRINITY BEHAVIORAL CARE</t>
+          <t>Southeast Missouri State University</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AWARD-0002</t>
+          <t>SLW1H99F22C3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-002</t>
+          <t>AWARD-0030</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14.195</t>
+          <t>2023-003</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>OVER-93</t>
+          <t>84.425</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>234863</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>-53379</v>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1044,14 +1779,413 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2022-002</t>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000027452</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Southeast Missouri State University</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AWARD-0031</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2023-003</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>84.425</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>44013</v>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000027452</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Southeast Missouri State University</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AWARD-0032</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2023-003</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>84.425</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1492489</v>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000027452</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Southeast Missouri State University</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AWARD-0033</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2023-003</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>84.425</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>91295</v>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000027452</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Southeast Missouri State University</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AWARD-0023</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2023-004</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>84.031</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HIGHER EDUCATION_INSTITUTIONAL AID</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>515504</v>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1067,18 +2201,26 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,25 +2230,26 @@
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
-    <col width="44.4" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="68.39999999999999" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="72" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1127,90 +2270,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -1218,50 +2366,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000027452</t>
+          <t>2023-06-GSAFAC-0000030144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Southeast Missouri State University</t>
+          <t>TRINITY BEHAVIORAL CARE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AWARD-0023</t>
+          <t>JG99XJ7WM5E8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-002</t>
+          <t>AWARD-0001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16.710</t>
+          <t>2023-001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>COG-84</t>
+          <t>93.788</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PUBLIC SAFETY PARTNERSHIP AND COMMUNITY POLICING GRANTS</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>93972</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+          <t>OVER-93</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>STATE TARGETED RESPONSE TO OPIOID CRISIS GRANTS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>689358</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -1273,19 +2421,17 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1293,9 +2439,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1308,58 +2454,61 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2022-001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000027452</t>
+          <t>2023-06-GSAFAC-0000030144</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Southeast Missouri State University</t>
+          <t>TRINITY BEHAVIORAL CARE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AWARD-0023</t>
+          <t>JG99XJ7WM5E8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-004</t>
+          <t>AWARD-0001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.710</t>
+          <t>2023-002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>COG-84</t>
+          <t>93.788</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PUBLIC SAFETY PARTNERSHIP AND COMMUNITY POLICING GRANTS</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>93972</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+          <t>OVER-93</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>STATE TARGETED RESPONSE TO OPIOID CRISIS GRANTS</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>689358</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -1371,19 +2520,17 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M3" t="b">
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -1391,9 +2538,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1406,433 +2553,83 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="32.4" customWidth="1" min="2" max="2"/>
-    <col width="44.4" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="36" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>report_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>auditee_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>award_reference</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>reference_number</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>aln</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>cog_over</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>federal_program_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>amount_expended</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_direct</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>is_major</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>is_passthrough_award</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>passthrough_amount</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>is_modified_opinion</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>is_other_matters</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>is_material_weakness</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>is_significant_deficiency</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>is_other_findings</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>is_questioned_costs</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>is_repeat_finding</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>prior_finding_ref_numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000027452</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Southeast Missouri State University</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AWARD-0029</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-003</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>84.425</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>COG-84</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>EDUCATION STABILIZATION FUND</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>18353</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000027452</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Southeast Missouri State University</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AWARD-0030</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-003</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>84.425</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>COG-84</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>EDUCATION STABILIZATION FUND</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-53379</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2022-002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000027452</t>
+          <t>2023-06-GSAFAC-0000030144</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Southeast Missouri State University</t>
+          <t>TRINITY BEHAVIORAL CARE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AWARD-0031</t>
+          <t>JG99XJ7WM5E8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-003</t>
+          <t>AWARD-0002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>84.425</t>
+          <t>2023-001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>COG-84</t>
+          <t>93.959</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EDUCATION STABILIZATION FUND</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>44013</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+          <t>OVER-93</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BLOCK GRANTS FOR PREVENTION &amp; TREATMENT OF SUBSTANCE ABUSE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>926850</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1840,9 +2637,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1855,82 +2652,83 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2022-001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000027452</t>
+          <t>2023-06-GSAFAC-0000030144</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Southeast Missouri State University</t>
+          <t>TRINITY BEHAVIORAL CARE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AWARD-0032</t>
+          <t>JG99XJ7WM5E8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-003</t>
+          <t>AWARD-0002</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>84.425</t>
+          <t>2023-002</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>COG-84</t>
+          <t>93.959</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EDUCATION STABILIZATION FUND</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1492489</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+          <t>OVER-93</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>BLOCK GRANTS FOR PREVENTION &amp; TREATMENT OF SUBSTANCE ABUSE</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>926850</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1938,9 +2736,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1953,107 +2751,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000027452</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Southeast Missouri State University</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AWARD-0033</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2023-003</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>84.425</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>COG-84</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EDUCATION STABILIZATION FUND</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>91295</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2022-002</t>
         </is>
       </c>
     </row>
@@ -2067,659 +2770,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId7"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="32.4" customWidth="1" min="2" max="2"/>
-    <col width="39.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="74.39999999999999" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>report_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>auditee_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>award_reference</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>reference_number</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>aln</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>cog_over</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>federal_program_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>amount_expended</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_direct</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>is_major</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>is_passthrough_award</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>passthrough_amount</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>is_modified_opinion</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>is_other_matters</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>is_material_weakness</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>is_significant_deficiency</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>is_other_findings</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>is_questioned_costs</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>is_repeat_finding</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>prior_finding_ref_numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000027592</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HUNTSVILLE SCHOOL DISTRICT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AWARD-0007</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-001</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>93.086</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>OVER-84</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>HEALTHY MARRIAGE PROMOTION AND RESPONSIBLE FATHERHOOD GRANTS</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1165114</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000027592</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HUNTSVILLE SCHOOL DISTRICT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AWARD-0009</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-002</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>93.558</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>OVER-84</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TEMPORARY ASSISTANCE FOR NEEDY FAMILIES</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>305838</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000028777</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Community Support Services Inc.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AWARD-0008</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2023-002</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>93.590</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>OVER-14</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>COMMUNITY-BASED CHILD ABUSE PREVENTION GRANTS</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>42815</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000028777</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Community Support Services Inc.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AWARD-0008</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-003</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>93.590</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>OVER-14</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>COMMUNITY-BASED CHILD ABUSE PREVENTION GRANTS</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>42815</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000028777</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Community Support Services Inc.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AWARD-0008</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2023-004</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>93.590</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>OVER-14</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>COMMUNITY-BASED CHILD ABUSE PREVENTION GRANTS</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>42815</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2731,7 +2781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2742,24 +2792,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="44.4" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="68.39999999999999" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="43.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2780,90 +2831,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -2885,51 +2941,49 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>WRJWCFVRM7M5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14.195</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>84.033</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>234863</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FEDERAL WORK-STUDY PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>309816</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2941,27 +2995,30 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2983,65 +3040,63 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0023</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16.710</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>84.031</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PUBLIC SAFETY PARTNERSHIP AND COMMUNITY POLICING GRANTS</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>93972</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HIGHER EDUCATION_INSTITUTIONAL AID</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>515504</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -3059,7 +3114,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3081,65 +3139,63 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0029</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>18353</v>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -3157,7 +3213,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3179,65 +3238,63 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0030</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-53379</v>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -3255,7 +3312,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3277,65 +3337,63 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0031</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>44013</v>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -3353,7 +3411,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3375,65 +3436,63 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>AWARD-0032</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1492489</v>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -3451,7 +3510,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3473,65 +3535,63 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>AWARD-0033</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>91295</v>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3549,7 +3609,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3571,65 +3634,63 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>SLW1H99F22C3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>AWARD-0023</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>16.710</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>84.031</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PUBLIC SAFETY PARTNERSHIP AND COMMUNITY POLICING GRANTS</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>93972</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HIGHER EDUCATION_INSTITUTIONAL AID</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>515504</v>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3647,7 +3708,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3682,7 +3746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3693,24 +3757,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="39.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="56.4" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="63.59999999999999" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3731,90 +3796,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -3836,51 +3906,52 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>S7JKG4C2V2B5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0008</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>93.590</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>64.033</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-14</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>COMMUNITY-BASED CHILD ABUSE PREVENTION GRANTS</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>42815</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>VA SUPPORTIVE SERVICES FOR VETERAN FAMILIES PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>551425</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>66767</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3892,14 +3963,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -3912,7 +3983,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3934,51 +4008,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>S7JKG4C2V2B5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0008</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>93.590</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>64.033</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-14</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>COMMUNITY-BASED CHILD ABUSE PREVENTION GRANTS</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>42815</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>VA SUPPORTIVE SERVICES FOR VETERAN FAMILIES PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>551425</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>66767</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3990,27 +4065,30 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4032,51 +4110,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>S7JKG4C2V2B5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0008</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>93.590</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>64.033</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-14</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>COMMUNITY-BASED CHILD ABUSE PREVENTION GRANTS</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>42815</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>VA SUPPORTIVE SERVICES FOR VETERAN FAMILIES PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>551425</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>66767</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4088,14 +4167,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -4108,7 +4187,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4133,7 +4215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4144,24 +4226,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="33.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="74.39999999999999" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="49.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4182,90 +4265,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -4287,65 +4375,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>GM38JLY696M9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0007</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>93.086</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>32.009</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>HEALTHY MARRIAGE PROMOTION AND RESPONSIBLE FATHERHOOD GRANTS</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1165114</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EMERGENCY CONNECTIVITY FUND PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>449594</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -4353,17 +4439,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4385,65 +4474,63 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>GM38JLY696M9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0009</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>93.558</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>84.425</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TEMPORARY ASSISTANCE FOR NEEDY FAMILIES</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>305838</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>COVID-19 - EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>3587973</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -4461,7 +4548,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4484,7 +4574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4495,24 +4585,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="56.4" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="72" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4533,90 +4624,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -4638,40 +4734,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>JG99XJ7WM5E8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14.157</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>93.788</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-93</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SUPPORTIVE HOUSING FOR THE ELDERLY</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>2030900</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>STATE TARGETED RESPONSE TO OPIOID CRISIS GRANTS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>689358</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -4679,10 +4775,8 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4694,14 +4788,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -4709,12 +4803,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4736,40 +4833,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>JG99XJ7WM5E8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14.157</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>93.788</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-93</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>SUPPORTIVE HOUSING FOR THE ELDERLY</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2030900</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>STATE TARGETED RESPONSE TO OPIOID CRISIS GRANTS</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>689358</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -4777,10 +4874,8 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M3" t="b">
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4792,14 +4887,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -4807,12 +4902,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2022-002</t>
         </is>
@@ -4834,51 +4932,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>JG99XJ7WM5E8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>14.195</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>93.959</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-93</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>234863</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BLOCK GRANTS FOR PREVENTION &amp; TREATMENT OF SUBSTANCE ABUSE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>926850</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4890,14 +4986,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -4905,12 +5001,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4932,51 +5031,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>JG99XJ7WM5E8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14.195</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>93.959</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>OVER-93</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>234863</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>BLOCK GRANTS FOR PREVENTION &amp; TREATMENT OF SUBSTANCE ABUSE</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>926850</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4988,14 +5085,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -5003,12 +5100,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>2022-002</t>
         </is>

--- a/assets/findings/2024-03-17-findings.xlsx
+++ b/assets/findings/2024-03-17-findings.xlsx
@@ -628,8 +628,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -661,8 +663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -886,8 +890,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>66767</v>
@@ -922,8 +928,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -988,8 +996,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>66767</v>
@@ -1024,8 +1034,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1090,8 +1102,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>66767</v>
@@ -1126,8 +1140,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1355,8 +1371,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -1388,8 +1406,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1454,8 +1474,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1487,8 +1509,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1553,8 +1577,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1586,8 +1612,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1652,8 +1680,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1685,8 +1715,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1751,8 +1783,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1784,8 +1818,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1850,8 +1886,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1883,8 +1921,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1949,8 +1989,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1982,8 +2024,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2048,8 +2092,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2081,8 +2127,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2147,8 +2195,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2180,8 +2230,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -2421,8 +2473,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2454,8 +2508,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2520,8 +2576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2553,8 +2611,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2619,8 +2679,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2652,8 +2714,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2718,8 +2782,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2751,8 +2817,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2982,8 +3050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3015,8 +3085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3081,8 +3153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3114,8 +3188,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3180,8 +3256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3213,8 +3291,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3279,8 +3359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3312,8 +3394,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3378,8 +3462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3411,8 +3497,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3477,8 +3565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3510,8 +3600,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3576,8 +3668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3609,8 +3703,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3675,8 +3771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3708,8 +3806,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3947,8 +4047,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>66767</v>
@@ -3983,8 +4085,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4049,8 +4153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>66767</v>
@@ -4085,8 +4191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4151,8 +4259,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>66767</v>
@@ -4187,8 +4297,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4416,8 +4528,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -4449,8 +4563,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4515,8 +4631,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -4548,8 +4666,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4775,8 +4895,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4808,8 +4930,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4874,8 +4998,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4907,8 +5033,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4973,8 +5101,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5006,8 +5136,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5072,8 +5204,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5105,8 +5239,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
